--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\Pronostico_PDO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\app_dash_plotly\app_dash_plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657847B-611C-42AD-BC70-0D530866D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E5845-8F74-43BD-ABAC-4AC7E2C0EDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FA4FF30-C172-4744-9D4B-765AA4463CF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FA4FF30-C172-4744-9D4B-765AA4463CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FF1E591-A241-42EA-A54B-285539715FF0}" name="Tabla1" displayName="Tabla1" ref="A1:C210" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C210" xr:uid="{2FF1E591-A241-42EA-A54B-285539715FF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FF1E591-A241-42EA-A54B-285539715FF0}" name="Tabla1" displayName="Tabla1" ref="A1:C213" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C213" xr:uid="{2FF1E591-A241-42EA-A54B-285539715FF0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FB9F9D53-414E-4F00-AD9D-01CABA66ED64}" name="Fecha" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{344490D6-02F5-4F04-A888-E6C4157BE6DF}" name="Programado" dataDxfId="1" dataCellStyle="Porcentaje"/>
@@ -472,21 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD350A60-5A0A-4B2D-9138-D90878F1D7AB}">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45313</v>
       </c>
@@ -508,7 +508,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45314</v>
       </c>
@@ -519,7 +519,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45315</v>
       </c>
@@ -530,7 +530,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45316</v>
       </c>
@@ -541,7 +541,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45317</v>
       </c>
@@ -552,7 +552,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45318</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45320</v>
       </c>
@@ -574,7 +574,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45321</v>
       </c>
@@ -585,7 +585,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45322</v>
       </c>
@@ -596,7 +596,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45323</v>
       </c>
@@ -607,7 +607,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45324</v>
       </c>
@@ -618,7 +618,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45325</v>
       </c>
@@ -629,7 +629,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45327</v>
       </c>
@@ -640,7 +640,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45328</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45329</v>
       </c>
@@ -662,7 +662,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45330</v>
       </c>
@@ -673,7 +673,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45331</v>
       </c>
@@ -684,7 +684,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45332</v>
       </c>
@@ -695,7 +695,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45334</v>
       </c>
@@ -706,7 +706,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45335</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45336</v>
       </c>
@@ -728,7 +728,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45337</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45338</v>
       </c>
@@ -750,7 +750,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45339</v>
       </c>
@@ -761,7 +761,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45341</v>
       </c>
@@ -772,7 +772,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45342</v>
       </c>
@@ -783,7 +783,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45343</v>
       </c>
@@ -794,7 +794,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45344</v>
       </c>
@@ -805,7 +805,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45345</v>
       </c>
@@ -816,7 +816,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45346</v>
       </c>
@@ -827,7 +827,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45348</v>
       </c>
@@ -838,7 +838,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45349</v>
       </c>
@@ -849,7 +849,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45350</v>
       </c>
@@ -860,7 +860,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45351</v>
       </c>
@@ -871,7 +871,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45352</v>
       </c>
@@ -882,7 +882,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45353</v>
       </c>
@@ -893,7 +893,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45355</v>
       </c>
@@ -904,7 +904,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45356</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45357</v>
       </c>
@@ -926,7 +926,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45358</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45359</v>
       </c>
@@ -948,7 +948,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45360</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45362</v>
       </c>
@@ -970,7 +970,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45363</v>
       </c>
@@ -981,7 +981,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45364</v>
       </c>
@@ -992,7 +992,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45365</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45366</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45367</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45369</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45370</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45371</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45372</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45373</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45374</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45376</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45377</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>45378</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>45379</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45380</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>3.0350819639338683E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>45381</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>45383</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>45384</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>45385</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>45386</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>45387</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>45388</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45390</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>45391</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>45392</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>45393</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>45394</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>45395</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>45397</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3.3931428342818272E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>45398</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>3.6315833691727582E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>45399</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3.6315833691727582E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>45400</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>3.6315833691727582E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>45401</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>3.6315833691727582E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>45402</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3.6315833691727582E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>45404</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>45405</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45406</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>45407</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>45408</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>45409</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>3.7806087034795914E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>45411</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3.9296340377864229E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>45412</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>4.0364852024844218E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>45413</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>4.0364852024844218E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>45414</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>4.7946140843943465E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>45415</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>4.7946140843943465E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45416</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>4.7946140843943465E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45418</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4.973644519568326E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45419</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45420</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45421</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45422</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45423</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45425</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45426</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>5.4207205224888226E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45427</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>5.7187711911024872E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45428</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>5.7187711911024872E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45429</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>5.7187711911024872E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45430</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>6.0768320614504462E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45432</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6.0768320614504462E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45433</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>6.0768320614504462E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45434</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>6.0768320614504462E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45435</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>6.225857395757279E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45436</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>6.225857395757279E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45437</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>6.225857395757279E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45439</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>6.225857395757279E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45440</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>7.0384955442425205E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45441</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>7.0384955442425205E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45442</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>7.0384955442425205E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45443</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>7.1302951501755292E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45444</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>7.1302951501755292E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>45446</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>7.1302951501755292E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>45447</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>7.1302951501755292E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45448</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>7.1302951501755292E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45449</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>7.4283458187891938E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45450</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45451</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45453</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45454</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45455</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45456</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45457</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>7.782406009021533E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45458</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>9.488331016272767E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45460</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>9.488331016272767E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45461</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>9.488331016272767E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45462</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1.0421489653241049E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45463</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1.0421489653241049E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45464</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1.0924575177780222E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45465</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1.0924575177780222E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45467</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1.0924575177780222E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45468</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1.3156854665293099E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45469</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1.3156854665293099E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45470</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1.3156854665293099E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45471</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1.4411401271549497E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45472</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>1.6107735648393563E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45474</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1.6107735648393563E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45475</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1.6107735648393563E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45476</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1.6107735648393563E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45477</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45478</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45479</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45481</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45482</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45483</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1.6610821172932732E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45484</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1.6964881363165072E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>45485</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1.6964881363165072E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45486</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>1.8963221080917091E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45488</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>2.0411171232442845E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45489</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>2.0411171232442845E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45490</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>2.0411171232442845E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45491</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>2.0411171232442845E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>45492</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2.0411171232442845E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>45493</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2.2968005894335369E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>45495</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>2.3576281301154533E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>45496</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2.4292403041850444E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>45497</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>2.4913980710054042E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>45498</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>2.5932238813931696E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>45499</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>2.8148968086479459E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>45500</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2.8148968086479459E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>45502</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>2.9820172191177257E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>45503</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>3.0233727495579007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>45504</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>3.8840304613689092E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>45505</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>3.8840304613689092E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>45506</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>4.2174269244819235E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>45507</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>4.2174269244819235E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>45509</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>4.2440870567044021E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>45510</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>4.2700954781360448E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>45511</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>4.2700954781360448E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>45512</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>4.2833727352697575E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>45513</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>4.3386906393134451E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>45514</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>4.40498870998546E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>45516</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4.4369901502303008E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>45517</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>4.4508843122378419E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>45518</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>4.4817101526307086E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>45519</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>4.5132991227556304E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>45520</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>4.8643393996026942E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>45521</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>4.8643393996026942E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>45523</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>4.8643393996026942E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>45524</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>4.894881591775363E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>45525</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>4.923689289083906E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>45526</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>4.9799572546380497E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>45527</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>5.0940545511784625E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>45528</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>5.3498005279945214E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>45530</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>5.3394387664950659E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>45531</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>5.3394387664950659E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>45532</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>5.3521933347716724E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>45533</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>5.3626223076970701E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>45534</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>5.4110444394594698E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>45535</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>5.513572569241533E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>45537</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>5.5906059649187975E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>45538</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>5.6000545711818624E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>45539</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>5.6013452906041643E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>45540</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>5.6645060279295091E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>45541</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>5.9335851713838962E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>45542</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>6.0910577417208539E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>45544</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>6.1279161076430604E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>45545</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>6.1819695967362066E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>45546</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>6.3065132691605186E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>45547</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>6.4570281566913995E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>45548</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>6.493243213251014E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>45551</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>6.8383103746684562E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>45552</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>6.883710492688519E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>45553</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>6.9090648029212581E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>45554</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>7.0157040315901323E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>45555</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>7.1745937714173313E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>45556</v>
       </c>
@@ -2793,7 +2793,40 @@
         <v>0.14208877529770433</v>
       </c>
       <c r="C210" s="2">
-        <v>7.1980880654473153E-2</v>
+        <v>7.4051217611755885E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>45557</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.14321843284009339</v>
+      </c>
+      <c r="C211" s="2">
+        <v>7.4051217611755885E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>45558</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.14434809038248253</v>
+      </c>
+      <c r="C212" s="2">
+        <v>7.4518716086496586E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>45559</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0.14553797452580075</v>
+      </c>
+      <c r="C213" s="2">
+        <v>7.4987311747759008E-2</v>
       </c>
     </row>
   </sheetData>
